--- a/JavaScript/12. Cas - Test/Test-JavaScript-1.deo.xlsx
+++ b/JavaScript/12. Cas - Test/Test-JavaScript-1.deo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dženan Košuta\GitHub\IT Camp - 2. grupa\JavaScript\12. Cas - Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A89653-7277-4CE3-A940-3E7CABACCE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265149EB-25C4-4176-94DE-260E3E09D6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,6 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -255,7 +256,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,39 +555,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="14"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="3">
         <v>1</v>
       </c>
@@ -597,262 +597,390 @@
       <c r="F3" s="3">
         <v>3</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="2">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3">
+        <v>19</v>
+      </c>
       <c r="G4" s="4">
         <f>SUM(C4:F4)</f>
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="2">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3">
+        <v>11</v>
+      </c>
       <c r="G5" s="4">
         <f t="shared" ref="G5:G21" si="0">SUM(C5:F5)</f>
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="2">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3">
+        <v>20</v>
+      </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="2">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3">
+        <v>18</v>
+      </c>
       <c r="G7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
+      <c r="C8" s="2">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3">
+        <v>18</v>
+      </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="2">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3">
+        <v>18</v>
+      </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
+      <c r="C10" s="2">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3">
+        <v>20</v>
+      </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
+      <c r="C11" s="2">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3">
+        <v>18</v>
+      </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
+      <c r="C12" s="2">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5">
+        <v>19</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8</v>
+      </c>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="2">
+        <v>23</v>
+      </c>
+      <c r="D13" s="3">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3">
+        <v>18</v>
+      </c>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="2">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3">
+        <v>20</v>
+      </c>
+      <c r="E14" s="5">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3">
+        <v>18</v>
+      </c>
       <c r="G14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="2">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3">
+        <v>20</v>
+      </c>
+      <c r="E15" s="5">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3">
+        <v>18</v>
+      </c>
       <c r="G15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5">
+        <v>20</v>
+      </c>
+      <c r="F16" s="3">
+        <v>18</v>
+      </c>
       <c r="G16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="2">
+        <v>29</v>
+      </c>
+      <c r="D17" s="3">
+        <v>20</v>
+      </c>
+      <c r="E17" s="5">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3">
+        <v>18</v>
+      </c>
       <c r="G17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
+      <c r="B18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
       <c r="G18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="3"/>
+      <c r="C19" s="2">
+        <v>35</v>
+      </c>
+      <c r="D19" s="3">
+        <v>20</v>
+      </c>
+      <c r="E19" s="5">
+        <v>20</v>
+      </c>
+      <c r="F19" s="3">
+        <v>18</v>
+      </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
